--- a/data/VID.xlsx
+++ b/data/VID.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>VID</t>
@@ -27779,7 +27779,7 @@
     <col min="6" max="6" customWidth="true" width="18.5390625" bestFit="true"/>
     <col min="7" max="7" customWidth="true" width="18.5390625" bestFit="true"/>
     <col min="8" max="8" customWidth="true" width="18.5390625" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="16.7890625" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="18.5390625" bestFit="true"/>
     <col min="10" max="10" customWidth="true" width="14.33203125"/>
     <col min="11" max="11" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="16.7890625" customWidth="true" bestFit="true"/>
@@ -33113,7 +33113,7 @@
         <v>1.07661676134E11</v>
       </c>
       <c r="I50" s="25" t="n">
-        <v>1.20589785314E11</v>
+        <v>1.19110691244E11</v>
       </c>
       <c r="K50" s="25" t="n">
         <v>4.8995847921E10</v>
@@ -33209,7 +33209,7 @@
         <v>1.19064888744E11</v>
       </c>
       <c r="AP50" s="25" t="n">
-        <v>1.20589785314E11</v>
+        <v>1.19110691244E11</v>
       </c>
       <c r="AQ50" s="25" t="n">
         <v>1.25017849343E11</v>
@@ -33247,7 +33247,7 @@
         <v>1.1804469656E10</v>
       </c>
       <c r="I51" s="25" t="n">
-        <v>4.488064029E9</v>
+        <v>6.181958099E9</v>
       </c>
       <c r="K51" s="25" t="n">
         <v>0.0</v>
@@ -33343,7 +33343,7 @@
         <v>1.52489657E9</v>
       </c>
       <c r="AP51" s="25" t="n">
-        <v>4.488064029E9</v>
+        <v>6.181958099E9</v>
       </c>
       <c r="AQ51" s="25" t="n">
         <v>0.0</v>
@@ -33381,7 +33381,7 @@
         <v>-3.55454546E8</v>
       </c>
       <c r="I52" s="25" t="n">
-        <v>-6.0E7</v>
+        <v>-2.748E8</v>
       </c>
       <c r="K52" s="25" t="n">
         <v>-9.557782E8</v>
@@ -33477,7 +33477,7 @@
         <v>0.0</v>
       </c>
       <c r="AP52" s="25" t="n">
-        <v>-6.0E7</v>
+        <v>-2.748E8</v>
       </c>
       <c r="AQ52" s="25" t="n">
         <v>0.0</v>
@@ -33649,7 +33649,7 @@
         <v>6.4305802743E10</v>
       </c>
       <c r="I54" s="25" t="n">
-        <v>7.703954726E10</v>
+        <v>7.1285552135E10</v>
       </c>
       <c r="K54" s="25" t="n">
         <v>3.0207675977E10</v>
@@ -33745,7 +33745,7 @@
         <v>7.5046245406E10</v>
       </c>
       <c r="AP54" s="25" t="n">
-        <v>7.703954726E10</v>
+        <v>7.1285552135E10</v>
       </c>
       <c r="AQ54" s="25" t="n">
         <v>7.9030170342E10</v>
@@ -33783,7 +33783,7 @@
         <v>7.310549869E9</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>2.050623082E9</v>
+        <v>8.01230951E9</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>5.37607551E8</v>
@@ -33879,7 +33879,7 @@
         <v>1.993301854E9</v>
       </c>
       <c r="AP55" s="25" t="n">
-        <v>2.050623082E9</v>
+        <v>8.01230951E9</v>
       </c>
       <c r="AQ55" s="25" t="n">
         <v>2.140948955E9</v>
@@ -33917,7 +33917,7 @@
         <v>-3.30800477E8</v>
       </c>
       <c r="I56" s="25" t="n">
-        <v>-6.0E7</v>
+        <v>-2.67691303E8</v>
       </c>
       <c r="K56" s="25" t="n">
         <v>-7.12638323E8</v>
@@ -34013,7 +34013,7 @@
         <v>0.0</v>
       </c>
       <c r="AP56" s="25" t="n">
-        <v>-6.0E7</v>
+        <v>-2.67691303E8</v>
       </c>
       <c r="AQ56" s="25" t="n">
         <v>0.0</v>
@@ -35257,7 +35257,7 @@
         <v>2.6930027271E10</v>
       </c>
       <c r="I66" s="25" t="n">
-        <v>8.178611916E9</v>
+        <v>2.6930027271E10</v>
       </c>
       <c r="K66" s="25" t="n">
         <v>2.6653475271E10</v>
@@ -35353,7 +35353,7 @@
         <v>8.178611916E9</v>
       </c>
       <c r="AP66" s="25" t="n">
-        <v>8.178611916E9</v>
+        <v>2.6930027271E10</v>
       </c>
       <c r="AQ66" s="25" t="n">
         <v>8.178611916E9</v>
@@ -35525,7 +35525,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.8751415355E10</v>
       </c>
       <c r="K68" s="25" t="n">
         <v>0.0</v>
@@ -35621,7 +35621,7 @@
         <v>0.0</v>
       </c>
       <c r="AP68" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.8751415355E10</v>
       </c>
       <c r="AQ68" s="25" t="n">
         <v>0.0</v>
@@ -35793,7 +35793,7 @@
         <v>3.113701442E9</v>
       </c>
       <c r="I70" s="25" t="n">
-        <v>3.48953294E9</v>
+        <v>3.34094492E9</v>
       </c>
       <c r="K70" s="25" t="n">
         <v>1.6775714E9</v>
@@ -35889,7 +35889,7 @@
         <v>3.4400036E9</v>
       </c>
       <c r="AP70" s="25" t="n">
-        <v>3.48953294E9</v>
+        <v>3.34094492E9</v>
       </c>
       <c r="AQ70" s="25" t="n">
         <v>3.53906228E9</v>
@@ -35927,7 +35927,7 @@
         <v>2.27243478E8</v>
       </c>
       <c r="I71" s="25" t="n">
-        <v>4.952934E7</v>
+        <v>1.9811736E8</v>
       </c>
       <c r="K71" s="25" t="n">
         <v>4.952934E7</v>
@@ -36023,7 +36023,7 @@
         <v>4.952934E7</v>
       </c>
       <c r="AP71" s="25" t="n">
-        <v>4.952934E7</v>
+        <v>1.9811736E8</v>
       </c>
       <c r="AQ71" s="25" t="n">
         <v>4.952934E7</v>
@@ -36999,7 +36999,7 @@
         <v>2.95593158283E11</v>
       </c>
       <c r="I79" s="25" t="n">
-        <v>3.4184615317E11</v>
+        <v>3.4234615317E11</v>
       </c>
       <c r="K79" s="25" t="n">
         <v>2.7114339993E10</v>
@@ -37095,7 +37095,7 @@
         <v>3.4178235613E11</v>
       </c>
       <c r="AP79" s="25" t="n">
-        <v>3.4184615317E11</v>
+        <v>3.4234615317E11</v>
       </c>
       <c r="AQ79" s="25" t="n">
         <v>3.81459660438E11</v>
@@ -37133,7 +37133,7 @@
         <v>2.95593158283E11</v>
       </c>
       <c r="I80" s="25" t="n">
-        <v>3.4184615317E11</v>
+        <v>3.4234615317E11</v>
       </c>
       <c r="K80" s="25" t="n">
         <v>2.7114339993E10</v>
@@ -37229,7 +37229,7 @@
         <v>3.4178235613E11</v>
       </c>
       <c r="AP80" s="25" t="n">
-        <v>3.4184615317E11</v>
+        <v>3.4234615317E11</v>
       </c>
       <c r="AQ80" s="25" t="n">
         <v>3.81459660438E11</v>
@@ -37401,7 +37401,7 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="25" t="n">
-        <v>0.0</v>
+        <v>2.670224021E9</v>
       </c>
       <c r="K82" s="25" t="n">
         <v>0.0</v>
@@ -37497,7 +37497,7 @@
         <v>0.0</v>
       </c>
       <c r="AP82" s="25" t="n">
-        <v>0.0</v>
+        <v>2.670224021E9</v>
       </c>
       <c r="AQ82" s="25" t="n">
         <v>0.0</v>
@@ -37535,7 +37535,7 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="25" t="n">
-        <v>0.0</v>
+        <v>8.900746732E9</v>
       </c>
       <c r="K83" s="25" t="n">
         <v>0.0</v>
@@ -37631,7 +37631,7 @@
         <v>0.0</v>
       </c>
       <c r="AP83" s="25" t="n">
-        <v>0.0</v>
+        <v>8.900746732E9</v>
       </c>
       <c r="AQ83" s="25" t="n">
         <v>0.0</v>
@@ -37803,7 +37803,7 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="25" t="n">
-        <v>0.0</v>
+        <v>-6.230522711E9</v>
       </c>
       <c r="K85" s="25" t="n">
         <v>0.0</v>
@@ -37899,7 +37899,7 @@
         <v>0.0</v>
       </c>
       <c r="AP85" s="25" t="n">
-        <v>0.0</v>
+        <v>-6.230522711E9</v>
       </c>
       <c r="AQ85" s="25" t="n">
         <v>0.0</v>
@@ -37937,7 +37937,7 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="25" t="n">
-        <v>0.0</v>
+        <v>1.780149347E9</v>
       </c>
       <c r="K86" s="25" t="n">
         <v>0.0</v>
@@ -38033,7 +38033,7 @@
         <v>0.0</v>
       </c>
       <c r="AP86" s="25" t="n">
-        <v>0.0</v>
+        <v>1.780149347E9</v>
       </c>
       <c r="AQ86" s="25" t="n">
         <v>0.0</v>
@@ -38071,7 +38071,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="25" t="n">
-        <v>0.0</v>
+        <v>8.900746732E9</v>
       </c>
       <c r="K87" s="25" t="n">
         <v>0.0</v>
@@ -38167,7 +38167,7 @@
         <v>0.0</v>
       </c>
       <c r="AP87" s="25" t="n">
-        <v>0.0</v>
+        <v>8.900746732E9</v>
       </c>
       <c r="AQ87" s="25" t="n">
         <v>0.0</v>
@@ -38339,7 +38339,7 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="25" t="n">
-        <v>0.0</v>
+        <v>-7.120597385E9</v>
       </c>
       <c r="K89" s="25" t="n">
         <v>0.0</v>
@@ -38435,7 +38435,7 @@
         <v>0.0</v>
       </c>
       <c r="AP89" s="25" t="n">
-        <v>0.0</v>
+        <v>-7.120597385E9</v>
       </c>
       <c r="AQ89" s="25" t="n">
         <v>0.0</v>
@@ -38473,7 +38473,7 @@
         <v>2.686799085E9</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>5.373119857E9</v>
+        <v>5.007272E9</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>2.4641918313E10</v>
@@ -38569,7 +38569,7 @@
         <v>8.16544261E8</v>
       </c>
       <c r="AP90" s="25" t="n">
-        <v>5.373119857E9</v>
+        <v>5.007272E9</v>
       </c>
       <c r="AQ90" s="25" t="n">
         <v>6.85443285E8</v>
@@ -38607,7 +38607,7 @@
         <v>0.0</v>
       </c>
       <c r="I91" s="25" t="n">
-        <v>3.140787888E9</v>
+        <v>3.140788E9</v>
       </c>
       <c r="K91" s="25" t="n">
         <v>1.0125765E7</v>
@@ -38703,7 +38703,7 @@
         <v>0.0</v>
       </c>
       <c r="AP91" s="25" t="n">
-        <v>3.140787888E9</v>
+        <v>3.140788E9</v>
       </c>
       <c r="AQ91" s="25" t="n">
         <v>0.0</v>
@@ -39009,7 +39009,7 @@
         <v>2.581830255E9</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>2.126454494E9</v>
+        <v>1.760607E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>2.4291184324E10</v>
@@ -39105,7 +39105,7 @@
         <v>0.0</v>
       </c>
       <c r="AP94" s="25" t="n">
-        <v>2.126454494E9</v>
+        <v>1.760607E9</v>
       </c>
       <c r="AQ94" s="25" t="n">
         <v>5.60606528E8</v>
@@ -39143,7 +39143,7 @@
         <v>1.0496883E8</v>
       </c>
       <c r="I95" s="25" t="n">
-        <v>1.05877475E8</v>
+        <v>1.05877E8</v>
       </c>
       <c r="K95" s="25" t="n">
         <v>8.4679556E7</v>
@@ -39239,7 +39239,7 @@
         <v>7.2707454E7</v>
       </c>
       <c r="AP95" s="25" t="n">
-        <v>1.05877475E8</v>
+        <v>1.05877E8</v>
       </c>
       <c r="AQ95" s="25" t="n">
         <v>1.24836757E8</v>
@@ -39813,7 +39813,7 @@
         <v>5.49320802E8</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>1040000.0</v>
+        <v>8.21539573E8</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>1.2717455333E10</v>
@@ -39909,7 +39909,7 @@
         <v>0.0</v>
       </c>
       <c r="AP100" s="25" t="n">
-        <v>1040000.0</v>
+        <v>8.21539573E8</v>
       </c>
       <c r="AQ100" s="25" t="n">
         <v>0.0</v>
@@ -40349,7 +40349,7 @@
         <v>5.49320802E8</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>1040000.0</v>
+        <v>8.21539573E8</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>1.2717455333E10</v>
@@ -40445,7 +40445,7 @@
         <v>0.0</v>
       </c>
       <c r="AP104" s="25" t="n">
-        <v>1040000.0</v>
+        <v>8.21539573E8</v>
       </c>
       <c r="AQ104" s="25" t="n">
         <v>0.0</v>
@@ -40483,7 +40483,7 @@
         <v>9.069798441E9</v>
       </c>
       <c r="I105" s="25" t="n">
-        <v>1.786204092E9</v>
+        <v>7.79404519E8</v>
       </c>
       <c r="K105" s="25" t="n">
         <v>3.9962089829E10</v>
@@ -40579,7 +40579,7 @@
         <v>4.720784057E9</v>
       </c>
       <c r="AP105" s="25" t="n">
-        <v>1.786204092E9</v>
+        <v>7.79404519E8</v>
       </c>
       <c r="AQ105" s="25" t="n">
         <v>9.39015433E8</v>
@@ -40751,7 +40751,7 @@
         <v>4.88589017E8</v>
       </c>
       <c r="I107" s="25" t="n">
-        <v>5.70441639E8</v>
+        <v>6.7934515E8</v>
       </c>
       <c r="K107" s="25" t="n">
         <v>1.9529077E7</v>
@@ -40847,7 +40847,7 @@
         <v>4.97510765E8</v>
       </c>
       <c r="AP107" s="25" t="n">
-        <v>5.70441639E8</v>
+        <v>6.7934515E8</v>
       </c>
       <c r="AQ107" s="25" t="n">
         <v>5.19718593E8</v>
@@ -40885,7 +40885,7 @@
         <v>3.0240573E7</v>
       </c>
       <c r="I108" s="25" t="n">
-        <v>3.3384408E7</v>
+        <v>0.0</v>
       </c>
       <c r="K108" s="25" t="n">
         <v>1.84459097E8</v>
@@ -40981,7 +40981,7 @@
         <v>3.4984407E7</v>
       </c>
       <c r="AP108" s="25" t="n">
-        <v>3.3384408E7</v>
+        <v>0.0</v>
       </c>
       <c r="AQ108" s="25" t="n">
         <v>1.92928407E8</v>
@@ -41421,7 +41421,7 @@
         <v>1.863E8</v>
       </c>
       <c r="I112" s="25" t="n">
-        <v>1.863E8</v>
+        <v>0.0</v>
       </c>
       <c r="K112" s="25" t="n">
         <v>9.1911E8</v>
@@ -41517,7 +41517,7 @@
         <v>1.863E8</v>
       </c>
       <c r="AP112" s="25" t="n">
-        <v>1.863E8</v>
+        <v>0.0</v>
       </c>
       <c r="AQ112" s="25" t="n">
         <v>1.863E8</v>
@@ -41689,7 +41689,7 @@
         <v>8.364668851E9</v>
       </c>
       <c r="I114" s="25" t="n">
-        <v>9.96078045E8</v>
+        <v>1.00059369E8</v>
       </c>
       <c r="K114" s="25" t="n">
         <v>3.8838991655E10</v>
@@ -41785,7 +41785,7 @@
         <v>4.001988885E9</v>
       </c>
       <c r="AP114" s="25" t="n">
-        <v>9.96078045E8</v>
+        <v>1.00059369E8</v>
       </c>
       <c r="AQ114" s="25" t="n">
         <v>4.0068433E7</v>
@@ -41823,7 +41823,7 @@
         <v>1.4E10</v>
       </c>
       <c r="I115" s="25" t="n">
-        <v>1.12E10</v>
+        <v>1.07E10</v>
       </c>
       <c r="K115" s="25" t="n">
         <v>0.0</v>
@@ -41919,7 +41919,7 @@
         <v>3.55E10</v>
       </c>
       <c r="AP115" s="25" t="n">
-        <v>1.12E10</v>
+        <v>1.07E10</v>
       </c>
       <c r="AQ115" s="25" t="n">
         <v>3.6E9</v>
@@ -41957,7 +41957,7 @@
         <v>1.4E10</v>
       </c>
       <c r="I116" s="25" t="n">
-        <v>1.12E10</v>
+        <v>0.0</v>
       </c>
       <c r="K116" s="25" t="n">
         <v>0.0</v>
@@ -42053,7 +42053,7 @@
         <v>3.55E10</v>
       </c>
       <c r="AP116" s="25" t="n">
-        <v>1.12E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ116" s="25" t="n">
         <v>3.6E9</v>
@@ -42091,7 +42091,7 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="25" t="n">
-        <v>0.0</v>
+        <v>1.07E10</v>
       </c>
       <c r="K117" s="25" t="n">
         <v>0.0</v>
@@ -42187,7 +42187,7 @@
         <v>0.0</v>
       </c>
       <c r="AP117" s="25" t="n">
-        <v>0.0</v>
+        <v>1.07E10</v>
       </c>
       <c r="AQ117" s="25" t="n">
         <v>0.0</v>
@@ -43029,7 +43029,7 @@
         <v>1.312326023917E12</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>0.0</v>
+        <v>1.18887785522E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>9.6893323433E10</v>
@@ -43163,7 +43163,7 @@
         <v>1.305350388776E12</v>
       </c>
       <c r="I125" s="25" t="n">
-        <v>0.0</v>
+        <v>1.17990677144E12</v>
       </c>
       <c r="K125" s="25" t="n">
         <v>9.3703885896E10</v>
@@ -43297,7 +43297,7 @@
         <v>6.975635141E9</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>0.0</v>
+        <v>8.97108378E9</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>3.189437537E9</v>
@@ -44503,7 +44503,7 @@
         <v>1.207966134637E12</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>0.0</v>
+        <v>1.115825642458E12</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>9.8520770686E10</v>
@@ -44599,7 +44599,7 @@
         <v>2.89124468314E11</v>
       </c>
       <c r="AP135" s="25" t="n">
-        <v>3.0732308545E11</v>
+        <v>3.10879868779E11</v>
       </c>
       <c r="AQ135" s="25" t="n">
         <v>2.13454446097E11</v>
@@ -44637,7 +44637,7 @@
         <v>9.91258693786E11</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>0.0</v>
+        <v>8.93694887907E11</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>9.1979981737E10</v>
@@ -44733,7 +44733,7 @@
         <v>2.89124468314E11</v>
       </c>
       <c r="AP136" s="25" t="n">
-        <v>3.0732308545E11</v>
+        <v>1.71531703668E11</v>
       </c>
       <c r="AQ136" s="25" t="n">
         <v>2.13454446097E11</v>
@@ -44771,7 +44771,7 @@
         <v>2.17253440851E11</v>
       </c>
       <c r="I137" s="25" t="n">
-        <v>0.0</v>
+        <v>2.18250627283E11</v>
       </c>
       <c r="K137" s="25" t="n">
         <v>3.22244804E8</v>
@@ -44867,7 +44867,7 @@
         <v>0.0</v>
       </c>
       <c r="AP137" s="25" t="n">
-        <v>0.0</v>
+        <v>1.35468037843E11</v>
       </c>
       <c r="AQ137" s="25" t="n">
         <v>0.0</v>
@@ -44905,7 +44905,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>0.0</v>
+        <v>3.880127268E9</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>2.046022887E9</v>
@@ -45001,7 +45001,7 @@
         <v>0.0</v>
       </c>
       <c r="AP138" s="25" t="n">
-        <v>0.0</v>
+        <v>3.880127268E9</v>
       </c>
       <c r="AQ138" s="25" t="n">
         <v>0.0</v>
@@ -45709,7 +45709,7 @@
         <v>1.8300677371E10</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>0.0</v>
+        <v>1.2344449167E10</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>1.52168794922E11</v>
@@ -45805,7 +45805,7 @@
         <v>1.4318232954E10</v>
       </c>
       <c r="AP144" s="25" t="n">
-        <v>9.099098801E9</v>
+        <v>-6.761092699E9</v>
       </c>
       <c r="AQ144" s="25" t="n">
         <v>5.937790368E9</v>
@@ -45843,7 +45843,7 @@
         <v>8.1320201E9</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>0.0</v>
+        <v>4.505365887E9</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>9.06477944E8</v>
@@ -45939,7 +45939,7 @@
         <v>2.01542225E8</v>
       </c>
       <c r="AP145" s="25" t="n">
-        <v>2.708546134E9</v>
+        <v>2.708551462E9</v>
       </c>
       <c r="AQ145" s="25" t="n">
         <v>7.6420119E7</v>
@@ -46111,7 +46111,7 @@
         <v>8.99522E9</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>0.0</v>
+        <v>5.99522E9</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>3.308564E8</v>
@@ -46207,7 +46207,7 @@
         <v>1.39816865E10</v>
       </c>
       <c r="AP147" s="25" t="n">
-        <v>5.620819234E9</v>
+        <v>-1.03845545E10</v>
       </c>
       <c r="AQ147" s="25" t="n">
         <v>4.997132E9</v>
@@ -46513,7 +46513,7 @@
         <v>1.173437271E9</v>
       </c>
       <c r="I150" s="25" t="n">
-        <v>0.0</v>
+        <v>1.698681046E9</v>
       </c>
       <c r="K150" s="25" t="n">
         <v>0.0</v>
@@ -46609,7 +46609,7 @@
         <v>1.35004229E8</v>
       </c>
       <c r="AP150" s="25" t="n">
-        <v>7.69733433E8</v>
+        <v>7.69728105E8</v>
       </c>
       <c r="AQ150" s="25" t="n">
         <v>3.64238249E8</v>
@@ -46915,7 +46915,7 @@
         <v>0.0</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>0.0</v>
+        <v>1.45182234E8</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>0.0</v>
@@ -47011,7 +47011,7 @@
         <v>0.0</v>
       </c>
       <c r="AP153" s="25" t="n">
-        <v>0.0</v>
+        <v>1.45182234E8</v>
       </c>
       <c r="AQ153" s="25" t="n">
         <v>5.0E8</v>
@@ -47049,7 +47049,7 @@
         <v>3.0099762622E10</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>0.0</v>
+        <v>2.8383387811E10</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>2.4975291621E10</v>
@@ -47145,7 +47145,7 @@
         <v>6.479037669E9</v>
       </c>
       <c r="AP154" s="25" t="n">
-        <v>1.0628254923E10</v>
+        <v>1.0434888345E10</v>
       </c>
       <c r="AQ154" s="25" t="n">
         <v>5.30181748E9</v>
@@ -47183,7 +47183,7 @@
         <v>2.1229616434E10</v>
       </c>
       <c r="I155" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8436531892E10</v>
       </c>
       <c r="K155" s="25" t="n">
         <v>1.774261975E9</v>
@@ -47279,7 +47279,7 @@
         <v>4.450976172E9</v>
       </c>
       <c r="AP155" s="25" t="n">
-        <v>5.990471541E9</v>
+        <v>5.797104963E9</v>
       </c>
       <c r="AQ155" s="25" t="n">
         <v>4.176328663E9</v>
@@ -47719,7 +47719,7 @@
         <v>8.870146188E9</v>
       </c>
       <c r="I159" s="25" t="n">
-        <v>0.0</v>
+        <v>9.946855919E9</v>
       </c>
       <c r="K159" s="25" t="n">
         <v>2064868.0</v>
@@ -48255,7 +48255,7 @@
         <v>3.11518624333E11</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>0.0</v>
+        <v>2.93954953046E11</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>2.4311560548E10</v>
@@ -48351,7 +48351,7 @@
         <v>1.08443864657E11</v>
       </c>
       <c r="AP163" s="25" t="n">
-        <v>8.6125719483E10</v>
+        <v>6.1675526364E10</v>
       </c>
       <c r="AQ163" s="25" t="n">
         <v>4.5492201501E10</v>
@@ -48389,7 +48389,7 @@
         <v>2.36693337854E11</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>0.0</v>
+        <v>2.23664195715E11</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>2.2694549572E10</v>
@@ -48485,7 +48485,7 @@
         <v>9.0889765107E10</v>
       </c>
       <c r="AP164" s="25" t="n">
-        <v>6.7546951809E10</v>
+        <v>5.0108268587E10</v>
       </c>
       <c r="AQ164" s="25" t="n">
         <v>3.1478267872E10</v>
@@ -48523,7 +48523,7 @@
         <v>2.002759859E10</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3684026454E10</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>6.18272692E8</v>
@@ -48619,7 +48619,7 @@
         <v>4.986114214E9</v>
       </c>
       <c r="AP165" s="25" t="n">
-        <v>5.549768599E9</v>
+        <v>-2.695472199E9</v>
       </c>
       <c r="AQ165" s="25" t="n">
         <v>5.77555838E9</v>
@@ -48657,7 +48657,7 @@
         <v>7.537793347E9</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>0.0</v>
+        <v>9.100501544E9</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>3.25385319E8</v>
@@ -48753,7 +48753,7 @@
         <v>2.042831194E9</v>
       </c>
       <c r="AP166" s="25" t="n">
-        <v>1.776808483E9</v>
+        <v>2.545189759E9</v>
       </c>
       <c r="AQ166" s="25" t="n">
         <v>2.20443478E8</v>
@@ -48791,7 +48791,7 @@
         <v>4.12982318E10</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>0.0</v>
+        <v>3.7540538471E10</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>6.73352965E8</v>
@@ -48887,7 +48887,7 @@
         <v>9.811510509E9</v>
       </c>
       <c r="AP167" s="25" t="n">
-        <v>1.1252190592E10</v>
+        <v>6.227644547E9</v>
       </c>
       <c r="AQ167" s="25" t="n">
         <v>7.475815864E9</v>
@@ -48925,7 +48925,7 @@
         <v>5.961662742E9</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>0.0</v>
+        <v>9.965690862E9</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>0.0</v>
@@ -49021,7 +49021,7 @@
         <v>7.13643633E8</v>
       </c>
       <c r="AP168" s="25" t="n">
-        <v>0.0</v>
+        <v>5.48989567E9</v>
       </c>
       <c r="AQ168" s="25" t="n">
         <v>5.42115907E8</v>

--- a/data/VID.xlsx
+++ b/data/VID.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>VID</t>

--- a/data/VID.xlsx
+++ b/data/VID.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>VID</t>

--- a/data/VID.xlsx
+++ b/data/VID.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>VID</t>
